--- a/03_Interface/Mapper 인터페이스 명세서.xlsx
+++ b/03_Interface/Mapper 인터페이스 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OYH\Desktop\FinalProject\Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983EF96-D398-4186-B74F-3E347A7BBCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27042A-E9E4-4601-ADC7-EF4B1D6E0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Service" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="583">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String sort, String ingr, long beginRow, long endRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recipe recipe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sort : 종류, ingr : 재료, beginRow: 조회 시작행, endRow:조회 종료행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자:회원정보 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 회원의 레시피 목록을 요청 범위만큼 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피 수 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1084,26 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectRecipeCountByType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 유형의 레시피 목록을 요청 범위만큼 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 수 조회(유형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 유형별 레시피 수를 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포인트 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1768,14 +1736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectRecipeListByType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectRecipListByMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rrId : 상위댓글, beginRow : 조회 시작행, endRow : 조회 종료행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1981,6 +1941,312 @@
   </si>
   <si>
     <t>List&lt;FollowList&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchMapper.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-2</t>
+  </si>
+  <si>
+    <t>PS-3</t>
+  </si>
+  <si>
+    <t>PS-4</t>
+  </si>
+  <si>
+    <t>PS-5</t>
+  </si>
+  <si>
+    <t>PS-6</t>
+  </si>
+  <si>
+    <t>PS-7</t>
+  </si>
+  <si>
+    <t>PS-8</t>
+  </si>
+  <si>
+    <t>PS-9</t>
+  </si>
+  <si>
+    <t>레시피 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피명별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐프명별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료명별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색키워드별 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category : 선택한 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 레시피 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeByCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String categroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period : 현재날짜 기준 검색 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeByPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 기간별 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipListByPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period: 조회기간, beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 기간별 등록된 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period: 조회기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(키워드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 카테고리별 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 키워드별 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListByCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListByKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category: 카테고리, period: 조회기간, beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameOption: 이름 검색 조건, keyword:검색키워드, period: 조회기간, beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 카테고리별 등록된 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountByCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountByPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String category, int period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category: 카테고리, period: 조회기간</t>
+  </si>
+  <si>
+    <t>레시피 수 조회(키워드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 키워드별 등록된 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountByKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String nameOption, String keyword, int period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameOption: 이름 검색 조건, keyword:검색키워드, period: 조회기간</t>
+  </si>
+  <si>
+    <t>레시피 목록 조회(재료명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 재료가 들어간 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListByIngredient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword:검색키워드, period: 조회기간, beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(재료명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 재료가 들어간 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountByIngredient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String keyword, int period</t>
+  </si>
+  <si>
+    <t>keyword:검색키워드, period: 조회기간</t>
+  </si>
+  <si>
+    <t>랜덤 레시피 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListByRandom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤한 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR-27</t>
+  </si>
+  <si>
+    <t>PR-28</t>
+  </si>
+  <si>
+    <t>PR-29</t>
+  </si>
+  <si>
+    <t>PR-30</t>
+  </si>
+  <si>
+    <t>PR-31</t>
+  </si>
+  <si>
+    <t>PR-32</t>
+  </si>
+  <si>
+    <t>int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String keyword, int period, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String nameOption, String keyword, int period, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String category, int period, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int period, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(다중 재료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 재료들이 들어간 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListByIngredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String query, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query: 재료를 검색하는 쿼리 ,beginRow: 조회 시작행, endRow:조회 종료행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2883,7 +3149,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="16"/>
     </row>
@@ -2938,7 +3204,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -2950,7 +3216,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -2962,7 +3228,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -2974,7 +3240,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -2986,7 +3252,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -2998,7 +3264,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -3010,7 +3276,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -3029,10 +3295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5754C43-DDDC-4BEF-99E0-7E1888A0A96A}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3066,7 +3332,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="16"/>
     </row>
@@ -3115,12 +3381,12 @@
         <v>67</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>10</v>
@@ -3129,13 +3395,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>19</v>
@@ -3146,22 +3412,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>19</v>
@@ -3172,7 +3438,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>11</v>
@@ -3187,7 +3453,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>19</v>
@@ -3198,22 +3464,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>19</v>
@@ -3224,7 +3490,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>12</v>
@@ -3239,7 +3505,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>19</v>
@@ -3250,22 +3516,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>19</v>
@@ -3274,7 +3540,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>13</v>
@@ -3283,13 +3549,13 @@
         <v>41</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -3300,25 +3566,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -3326,25 +3592,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -3352,25 +3618,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -3378,25 +3644,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -3404,25 +3670,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -3430,25 +3696,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
@@ -3456,25 +3722,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>509</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
@@ -3529,27 +3795,27 @@
         <v>67</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>19</v>
@@ -3560,22 +3826,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>19</v>
@@ -3586,22 +3852,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>19</v>
@@ -3612,22 +3878,22 @@
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>19</v>
@@ -3638,7 +3904,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>23</v>
@@ -3650,10 +3916,10 @@
         <v>27</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>19</v>
@@ -3664,7 +3930,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>31</v>
@@ -3676,10 +3942,10 @@
         <v>35</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>19</v>
@@ -3690,7 +3956,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>32</v>
@@ -3702,10 +3968,10 @@
         <v>36</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>19</v>
@@ -3716,22 +3982,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>19</v>
@@ -3742,22 +4008,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>19</v>
@@ -3768,7 +4034,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>24</v>
@@ -3780,10 +4046,10 @@
         <v>28</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>19</v>
@@ -3794,22 +4060,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>19</v>
@@ -3820,10 +4086,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>49</v>
@@ -3832,10 +4098,10 @@
         <v>47</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>19</v>
@@ -3846,22 +4112,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>19</v>
@@ -3872,10 +4138,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>50</v>
@@ -3884,10 +4150,10 @@
         <v>48</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>19</v>
@@ -3898,22 +4164,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>19</v>
@@ -3924,22 +4190,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>19</v>
@@ -3950,48 +4216,48 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>26</v>
@@ -4002,25 +4268,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="G45" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>18</v>
@@ -4028,25 +4294,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="G46" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>18</v>
@@ -4054,25 +4320,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>171</v>
-      </c>
       <c r="G47" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>18</v>
@@ -4080,25 +4346,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>68</v>
+        <v>573</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>18</v>
@@ -4106,25 +4372,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>64</v>
+        <v>535</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>274</v>
+        <v>529</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>70</v>
+        <v>577</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>18</v>
@@ -4132,25 +4398,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>64</v>
+        <v>536</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>249</v>
+        <v>538</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>202</v>
+        <v>576</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>18</v>
@@ -4158,25 +4424,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>272</v>
+        <v>541</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>186</v>
+        <v>575</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>186</v>
+        <v>543</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>18</v>
@@ -4184,938 +4450,934 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="C67" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>332</v>
+        <v>177</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>471</v>
+        <v>236</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="30" t="s">
+      <c r="A69" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>258</v>
+      <c r="A70" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="F71" s="12" t="s">
+      <c r="A71" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>258</v>
+      <c r="C74" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E75" s="29" t="s">
+      <c r="A75" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="F75" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>258</v>
+      <c r="G75" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
-        <v>302</v>
+        <v>462</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>258</v>
+        <v>185</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>426</v>
+        <v>229</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>463</v>
+        <v>346</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>230</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>460</v>
+        <v>349</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>321</v>
+        <v>253</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>485</v>
+        <v>291</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E80" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F80" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="86" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="F87" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="18"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="18"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="93" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F94" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="G93" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>18</v>
+      <c r="H94" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>353</v>
+        <v>69</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>19</v>
@@ -5126,22 +5388,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D96" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F96" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="G96" s="25" t="s">
         <v>19</v>
@@ -5151,616 +5413,616 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G97" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H97" s="30" t="s">
+      <c r="A97" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="12" t="s">
+      <c r="A98" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="2" t="s">
+      <c r="D101" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="A102" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="A103" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B104" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="E111" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="109" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="G111" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="31"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="116" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="7" t="s">
+      <c r="B116" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="28"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="28"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="25" t="s">
+      <c r="C120" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E111" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="F111" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="G111" s="25" t="s">
+      <c r="C122" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G122" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="F113" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F115" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G115" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="H116" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G117" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="H117" s="30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G118" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="H118" s="30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G119" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="H119" s="30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H120" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="G121" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H121" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G122" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H122" s="30" t="s">
+      <c r="H122" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>426</v>
+        <v>229</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H123" s="30" t="s">
         <v>18</v>
@@ -5768,355 +6030,735 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>235</v>
+        <v>471</v>
       </c>
       <c r="D124" s="29" t="s">
         <v>230</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="H126" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" s="29" t="s">
+      <c r="F127" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H128" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H130" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H131" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H132" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E133" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F126" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G126" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H126" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="11"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="30"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="47"/>
-      <c r="B128" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="F128" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="G128" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="H128" s="49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="47"/>
-      <c r="B129" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="F129" s="48" t="s">
+      <c r="F133" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="11"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="30"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="47"/>
+      <c r="B135" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D135" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="E135" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="F135" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G135" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H135" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="47"/>
+      <c r="B136" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C136" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D136" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="F136" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="G136" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H136" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="47"/>
+      <c r="B137" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="G129" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="H129" s="49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="47"/>
-      <c r="B130" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="C130" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" s="48" t="s">
+      <c r="E137" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F137" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E130" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="F130" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="G130" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="H130" s="49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="47"/>
-      <c r="B131" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F131" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="G131" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="H131" s="49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="G137" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H137" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="47"/>
+      <c r="B138" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E138" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F138" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G138" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H138" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
+      <c r="B141" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="28"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B142" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E142" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F142" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G142" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H135" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="2"/>
+      <c r="H142" s="10" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B143" s="12"/>
+        <v>503</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="2"/>
+      <c r="D143" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B144" s="12"/>
+        <v>504</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
+      <c r="D144" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="H144" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="28"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/03_Interface/Mapper 인터페이스 명세서.xlsx
+++ b/03_Interface/Mapper 인터페이스 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OYH\Desktop\FinalProject\Interface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OYH\Desktop\Modu_recipe\Modu_recipe\03_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27042A-E9E4-4601-ADC7-EF4B1D6E0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092EC947-628B-4DCC-9F22-1A03609C090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Service" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="590">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2247,6 +2247,34 @@
   </si>
   <si>
     <t>query: 재료를 검색하는 쿼리 ,beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(북마크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 스크랩한 레시피를 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListOfMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListOfBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : 회원 이메일, ,beginRow: 조회 시작행, endRow:조회 종료행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3295,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5754C43-DDDC-4BEF-99E0-7E1888A0A96A}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4527,111 +4555,95 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="2"/>
+      <c r="A55" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="44" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>247</v>
+        <v>584</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>268</v>
+        <v>586</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>269</v>
+        <v>588</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>184</v>
+        <v>499</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>184</v>
+        <v>589</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A57" s="44"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A58" s="44"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>550</v>
+        <v>247</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>551</v>
+        <v>268</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>552</v>
+        <v>269</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>553</v>
+        <v>184</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>554</v>
+        <v>184</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>387</v>
@@ -4642,182 +4654,182 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="2"/>
+      <c r="A61" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
+      <c r="A63" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F68" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H68" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>457</v>
+        <v>310</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>458</v>
+        <v>309</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>19</v>
@@ -4828,22 +4840,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>19</v>
@@ -4854,22 +4866,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>19</v>
@@ -4880,100 +4892,100 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="G72" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>234</v>
+        <v>456</v>
       </c>
       <c r="G73" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G74" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>461</v>
+        <v>223</v>
       </c>
       <c r="G75" s="25" t="s">
         <v>19</v>
@@ -4983,127 +4995,127 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>18</v>
+      <c r="A76" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="A77" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="A78" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>256</v>
+        <v>474</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>262</v>
+        <v>476</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>255</v>
+        <v>66</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>452</v>
@@ -5114,25 +5126,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>231</v>
+        <v>472</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>453</v>
+        <v>349</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>255</v>
@@ -5140,25 +5152,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>453</v>
+        <v>253</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>255</v>
@@ -5166,25 +5178,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>415</v>
+        <v>275</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>453</v>
+        <v>200</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>255</v>
@@ -5192,22 +5204,22 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>418</v>
+        <v>232</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="G84" s="29" t="s">
         <v>453</v>
@@ -5218,244 +5230,244 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B90" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C90" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D90" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E90" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F90" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G90" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="93" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="18"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="18"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="45"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="96" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B96" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="28"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D97" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E97" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="F97" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G97" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H97" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="G98" s="25" t="s">
         <v>19</v>
@@ -5466,22 +5478,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>19</v>
@@ -5492,22 +5504,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>391</v>
+        <v>58</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>389</v>
+        <v>60</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>427</v>
+        <v>93</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>19</v>
@@ -5518,22 +5530,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>402</v>
+        <v>209</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="G101" s="25" t="s">
         <v>19</v>
@@ -5544,22 +5556,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="G102" s="25" t="s">
         <v>19</v>
@@ -5570,22 +5582,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>210</v>
+        <v>421</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>220</v>
+        <v>427</v>
       </c>
       <c r="G103" s="25" t="s">
         <v>19</v>
@@ -5595,130 +5607,130 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H104" s="30" t="s">
+      <c r="A104" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" s="12" t="s">
+      <c r="A105" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F105" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="F105" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="A106" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="F106" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H107" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G107" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H107" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>245</v>
+        <v>392</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>18</v>
@@ -5726,25 +5738,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>18</v>
@@ -5752,25 +5764,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>18</v>
@@ -5778,196 +5790,196 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B114" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D114" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E114" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F114" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G111" s="12" t="s">
+      <c r="G114" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="116" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="31"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="119" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B119" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="28"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D120" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E120" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F120" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G120" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H117" s="10" t="s">
+      <c r="H120" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G119" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="B120" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>19</v>
@@ -5978,22 +5990,22 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>19</v>
@@ -6003,205 +6015,205 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G123" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H123" s="30" t="s">
+      <c r="A123" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="G124" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H124" s="30" t="s">
-        <v>467</v>
+      <c r="A124" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F125" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G125" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H125" s="30" t="s">
-        <v>467</v>
+      <c r="A125" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>304</v>
+        <v>481</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="G126" s="29" t="s">
         <v>465</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>467</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>231</v>
+        <v>471</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>418</v>
+        <v>232</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G130" s="29" t="s">
         <v>411</v>
@@ -6212,25 +6224,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H131" s="30" t="s">
         <v>18</v>
@@ -6238,25 +6250,25 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H132" s="30" t="s">
         <v>18</v>
@@ -6264,128 +6276,134 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B136" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C136" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D136" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E136" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F136" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G136" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="H133" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="11"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="30"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="47"/>
-      <c r="B135" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="D135" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="E135" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="F135" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G135" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H135" s="49" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="47"/>
-      <c r="B136" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="D136" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E136" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="F136" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="G136" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H136" s="49" t="s">
-        <v>467</v>
+      <c r="H136" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="47"/>
-      <c r="B137" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C137" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="E137" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="F137" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G137" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H137" s="49" t="s">
-        <v>467</v>
-      </c>
+      <c r="A137" s="11"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="30"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="47"/>
       <c r="B138" s="48" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>275</v>
+        <v>412</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="G138" s="48" t="s">
         <v>466</v>
@@ -6394,152 +6412,174 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="47"/>
+      <c r="B139" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D139" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="F139" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="G139" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H139" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="47"/>
+      <c r="B140" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F140" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G140" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="47"/>
+      <c r="B141" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D141" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E141" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F141" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G141" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H141" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B144" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="28"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="28"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C145" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E145" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="20" t="s">
+      <c r="F145" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G142" s="10" t="s">
+      <c r="G145" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H142" s="10" t="s">
+      <c r="H145" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
+      <c r="D146" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="G146" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H146" s="2"/>
+      <c r="H146" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
+      <c r="D147" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="G147" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H147" s="2"/>
+      <c r="H147" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -6548,14 +6588,16 @@
       <c r="G148" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H148" s="2"/>
+      <c r="H148" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -6568,141 +6610,149 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B150" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
+      <c r="G150" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B151" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="G151" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B157" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="28"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="28"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B158" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D158" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E158" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F155" s="20" t="s">
+      <c r="F158" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G155" s="10" t="s">
+      <c r="G158" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H155" s="10" t="s">
+      <c r="H158" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6710,11 +6760,13 @@
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
-      <c r="H160" s="2"/>
+      <c r="H160" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6722,11 +6774,13 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="H161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6738,7 +6792,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6750,7 +6804,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6758,7 +6812,43 @@
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-      <c r="H164" s="2" t="s">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/03_Interface/Mapper 인터페이스 명세서.xlsx
+++ b/03_Interface/Mapper 인터페이스 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OYH\Desktop\Modu_recipe\Modu_recipe\03_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092EC947-628B-4DCC-9F22-1A03609C090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566CCD5-F08E-45AC-BFC7-0C7856473AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="607">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2246,10 +2246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query: 재료를 검색하는 쿼리 ,beginRow: 조회 시작행, endRow:조회 종료행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피 목록 조회(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2276,6 +2272,70 @@
   <si>
     <t>email : 회원 이메일, ,beginRow: 조회 시작행, endRow:조회 종료행</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(다중 재료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 재료들이 들어간 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(북마크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 스크랩한 모든 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountByIngredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountOfMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountOfBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String query</t>
+  </si>
+  <si>
+    <t>query: 재료검색쿼리 ,beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query: 재료검색쿼리</t>
+  </si>
+  <si>
+    <t>PR-33</t>
+  </si>
+  <si>
+    <t>PR-34</t>
+  </si>
+  <si>
+    <t>PR-35</t>
+  </si>
+  <si>
+    <t>PR-36</t>
+  </si>
+  <si>
+    <t>PR-37</t>
+  </si>
+  <si>
+    <t>PR-38</t>
   </si>
 </sst>
 </file>
@@ -3323,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5754C43-DDDC-4BEF-99E0-7E1888A0A96A}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4545,7 +4605,7 @@
         <v>581</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>355</v>
@@ -4559,19 +4619,19 @@
         <v>569</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>499</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>355</v>
@@ -4585,19 +4645,19 @@
         <v>570</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>499</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>589</v>
+        <v>500</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>355</v>
@@ -4607,43 +4667,75 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="2"/>
+      <c r="A57" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="2"/>
+      <c r="A58" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>247</v>
+        <v>544</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>268</v>
+        <v>545</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>269</v>
+        <v>546</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>184</v>
+        <v>548</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>184</v>
+        <v>549</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>387</v>
@@ -4654,22 +4746,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>387</v>
@@ -4680,182 +4772,184 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>387</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>387</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>562</v>
+        <v>253</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>563</v>
+        <v>265</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="2"/>
+      <c r="A64" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
+      <c r="A66" s="27"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B68" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="28"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F69" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H69" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>19</v>
@@ -4866,22 +4960,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>19</v>
@@ -4892,22 +4986,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>458</v>
+        <v>236</v>
       </c>
       <c r="G72" s="25" t="s">
         <v>19</v>
@@ -4918,22 +5012,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G73" s="25" t="s">
         <v>19</v>
@@ -4944,22 +5038,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G74" s="25" t="s">
         <v>19</v>
@@ -4970,48 +5064,48 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="G75" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G76" s="25" t="s">
         <v>19</v>
@@ -5022,22 +5116,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>323</v>
+        <v>179</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>460</v>
+        <v>234</v>
       </c>
       <c r="G77" s="25" t="s">
         <v>19</v>
@@ -5048,22 +5142,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G78" s="25" t="s">
         <v>19</v>
@@ -5073,75 +5167,75 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>18</v>
+      <c r="A79" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>173</v>
+        <v>474</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>255</v>
+        <v>66</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>452</v>
@@ -5152,22 +5246,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>274</v>
+        <v>472</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>452</v>
@@ -5178,22 +5272,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>452</v>
@@ -5204,25 +5298,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>453</v>
+        <v>200</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>255</v>
@@ -5230,22 +5324,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>408</v>
+        <v>232</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>451</v>
+        <v>348</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="G85" s="29" t="s">
         <v>453</v>
@@ -5256,22 +5350,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>265</v>
+        <v>449</v>
       </c>
       <c r="G86" s="29" t="s">
         <v>453</v>
@@ -5282,22 +5376,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>453</v>
@@ -5308,46 +5402,48 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H88" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>313</v>
+        <v>450</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>185</v>
@@ -5356,22 +5452,22 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>66</v>
+        <v>348</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>185</v>
@@ -5379,13 +5475,27 @@
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="12"/>
+      <c r="A91" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5399,101 +5509,85 @@
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="96" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="97" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B97" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D98" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F98" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G98" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H98" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>19</v>
@@ -5504,22 +5598,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>19</v>
@@ -5530,22 +5624,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="G101" s="25" t="s">
         <v>19</v>
@@ -5556,22 +5650,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="G102" s="25" t="s">
         <v>19</v>
@@ -5582,22 +5676,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="G103" s="25" t="s">
         <v>19</v>
@@ -5608,22 +5702,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="G104" s="25" t="s">
         <v>19</v>
@@ -5634,22 +5728,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>94</v>
+        <v>404</v>
       </c>
       <c r="G105" s="25" t="s">
         <v>19</v>
@@ -5660,22 +5754,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="G106" s="25" t="s">
         <v>19</v>
@@ -5685,69 +5779,69 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G107" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H107" s="30" t="s">
+      <c r="A107" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H108" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>393</v>
+        <v>56</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>345</v>
@@ -5756,7 +5850,7 @@
         <v>95</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>398</v>
+        <v>62</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>18</v>
@@ -5764,25 +5858,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>244</v>
+        <v>394</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>63</v>
+        <v>398</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>18</v>
@@ -5790,22 +5884,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>63</v>
@@ -5816,25 +5910,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>18</v>
@@ -5842,22 +5936,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>185</v>
@@ -5868,36 +5962,52 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="A115" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5911,101 +6021,85 @@
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="119" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="31"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="120" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B120" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="28"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F121" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G121" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H120" s="10" t="s">
+      <c r="H121" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B121" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G121" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>19</v>
@@ -6016,22 +6110,22 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>19</v>
@@ -6042,22 +6136,22 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>19</v>
@@ -6068,22 +6162,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>19</v>
@@ -6093,75 +6187,75 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G126" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H126" s="30" t="s">
+      <c r="A126" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>302</v>
+        <v>481</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="G127" s="29" t="s">
         <v>465</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>467</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>253</v>
+        <v>351</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G128" s="29" t="s">
         <v>465</v>
@@ -6172,22 +6266,22 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>465</v>
@@ -6198,48 +6292,48 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>408</v>
+        <v>232</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>411</v>
@@ -6250,22 +6344,22 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>265</v>
+        <v>410</v>
       </c>
       <c r="G132" s="29" t="s">
         <v>411</v>
@@ -6276,22 +6370,22 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>411</v>
@@ -6302,25 +6396,25 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>233</v>
+        <v>416</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G134" s="29" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H134" s="30" t="s">
         <v>18</v>
@@ -6328,22 +6422,22 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G135" s="29" t="s">
         <v>185</v>
@@ -6354,22 +6448,22 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>185</v>
@@ -6379,55 +6473,57 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="11"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="30"/>
+      <c r="A137" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="47"/>
-      <c r="B138" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="C138" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="D138" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="E138" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="F138" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G138" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H138" s="49" t="s">
-        <v>467</v>
-      </c>
+      <c r="A138" s="11"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="47"/>
       <c r="B139" s="48" t="s">
-        <v>258</v>
+        <v>463</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>230</v>
+        <v>464</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="G139" s="48" t="s">
         <v>466</v>
@@ -6439,19 +6535,19 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="47"/>
       <c r="B140" s="48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>253</v>
+        <v>351</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G140" s="48" t="s">
         <v>466</v>
@@ -6463,19 +6559,19 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="47"/>
       <c r="B141" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>466</v>
@@ -6484,88 +6580,88 @@
         <v>467</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="47"/>
+      <c r="B142" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F142" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B145" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="28"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="28"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D146" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E146" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F145" s="20" t="s">
+      <c r="F146" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G145" s="10" t="s">
+      <c r="G146" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H145" s="10" t="s">
+      <c r="H146" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>355</v>
@@ -6576,15 +6672,21 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
+      <c r="D148" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="G148" s="12" t="s">
         <v>355</v>
       </c>
@@ -6594,10 +6696,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -6606,14 +6708,16 @@
       <c r="G149" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H149" s="2"/>
+      <c r="H149" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -6626,10 +6730,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -6642,10 +6746,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -6658,19 +6762,23 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B153" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
+      <c r="G153" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="12"/>
@@ -6678,95 +6786,93 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
-      <c r="H154" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B158" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="28"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="28"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B159" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D159" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E159" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F158" s="20" t="s">
+      <c r="F159" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G158" s="10" t="s">
+      <c r="G159" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H158" s="10" t="s">
+      <c r="H159" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
+        <v>364</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H160" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6780,7 +6886,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6788,11 +6894,13 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
-      <c r="H162" s="2"/>
+      <c r="H162" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6804,7 +6912,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6816,7 +6924,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6828,7 +6936,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6840,7 +6948,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6848,7 +6956,19 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
-      <c r="H167" s="2" t="s">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/03_Interface/Mapper 인터페이스 명세서.xlsx
+++ b/03_Interface/Mapper 인터페이스 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OYH\Desktop\Modu_recipe\Modu_recipe\03_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566CCD5-F08E-45AC-BFC7-0C7856473AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFCE61C-4F3F-4AF8-BF73-FFA0B9D8E737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{9ACDA75D-7750-4995-B97F-C181746F5D84}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="618">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,10 +2254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 회원이 작성한 레시피 목록을 요청 범위만큼 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특정 회원이 스크랩한 레시피를 요청 범위만큼 조회한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2270,10 +2266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email : 회원 이메일, ,beginRow: 조회 시작행, endRow:조회 종료행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피 수 조회(다중 재료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2336,6 +2328,55 @@
   </si>
   <si>
     <t>PR-38</t>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 모든 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 공개여부에 따른 레시피 목록을 요청 범위만큼 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeListOfMemberByType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String email, int type, int beginRow, int endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : 회원 이메일, type: 공개여부, beginRow: 조회 시작행, endRow:조회 종료행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 목록 조회(회원:공개여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 수 조회(회원:공개여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 공개여부에 따른 레시피 수를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRecipeCountOfMemberByType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String email, int type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : 회원 이메일, type: 공개여부</t>
+  </si>
+  <si>
+    <t>PR-39</t>
+  </si>
+  <si>
+    <t>PR-40</t>
   </si>
 </sst>
 </file>
@@ -3383,9 +3424,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5754C43-DDDC-4BEF-99E0-7E1888A0A96A}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -4605,7 +4646,7 @@
         <v>581</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>355</v>
@@ -4622,16 +4663,16 @@
         <v>582</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>499</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>355</v>
@@ -4645,19 +4686,19 @@
         <v>570</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>355</v>
@@ -4671,22 +4712,22 @@
         <v>571</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>247</v>
+        <v>583</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>268</v>
+        <v>584</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>269</v>
+        <v>586</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>184</v>
+        <v>499</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>184</v>
+        <v>500</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>18</v>
@@ -4697,19 +4738,19 @@
         <v>572</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>532</v>
+        <v>247</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>533</v>
+        <v>268</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>547</v>
+        <v>269</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>526</v>
+        <v>184</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>534</v>
+        <v>184</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>387</v>
@@ -4720,22 +4761,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>387</v>
@@ -4746,22 +4787,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>387</v>
@@ -4772,48 +4813,48 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>387</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>387</v>
@@ -4824,22 +4865,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D63" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="E63" s="29" t="s">
-        <v>253</v>
-      </c>
       <c r="F63" s="29" t="s">
-        <v>265</v>
+        <v>598</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>387</v>
@@ -4850,16 +4891,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C64" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>594</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>597</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>253</v>
@@ -4875,133 +4916,133 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="2"/>
+      <c r="A65" s="44" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B70" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F71" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H71" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="G72" s="25" t="s">
         <v>19</v>
@@ -5012,22 +5053,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>457</v>
+        <v>330</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>458</v>
+        <v>331</v>
       </c>
       <c r="G73" s="25" t="s">
         <v>19</v>
@@ -5038,22 +5079,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>456</v>
+        <v>236</v>
       </c>
       <c r="G74" s="25" t="s">
         <v>19</v>
@@ -5064,22 +5105,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>457</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G75" s="25" t="s">
         <v>19</v>
@@ -5090,74 +5131,74 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="G76" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="G77" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>460</v>
+        <v>223</v>
       </c>
       <c r="G78" s="25" t="s">
         <v>19</v>
@@ -5168,22 +5209,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>324</v>
+        <v>179</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>461</v>
+        <v>234</v>
       </c>
       <c r="G79" s="25" t="s">
         <v>19</v>
@@ -5193,101 +5234,101 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>18</v>
+      <c r="A80" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="A81" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>258</v>
+        <v>474</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>255</v>
+        <v>66</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>452</v>
@@ -5298,22 +5339,22 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>275</v>
+        <v>472</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>452</v>
@@ -5324,25 +5365,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>453</v>
+        <v>253</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>255</v>
@@ -5350,25 +5391,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>407</v>
+        <v>275</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>408</v>
+        <v>263</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>453</v>
+        <v>200</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>255</v>
@@ -5376,22 +5417,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>453</v>
@@ -5402,22 +5443,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G88" s="29" t="s">
         <v>453</v>
@@ -5428,70 +5469,74 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>265</v>
+        <v>450</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>185</v>
@@ -5499,147 +5544,143 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="12"/>
+      <c r="A92" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="12"/>
+      <c r="A93" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="97" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="18"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="99" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B99" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D100" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F100" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G100" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H100" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E101" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G101" s="25" t="s">
         <v>19</v>
@@ -5650,22 +5691,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>217</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G102" s="25" t="s">
         <v>19</v>
@@ -5676,22 +5717,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>390</v>
+        <v>58</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>337</v>
+        <v>93</v>
       </c>
       <c r="G103" s="25" t="s">
         <v>19</v>
@@ -5702,22 +5743,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>421</v>
+        <v>209</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>426</v>
+        <v>217</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>427</v>
+        <v>219</v>
       </c>
       <c r="G104" s="25" t="s">
         <v>19</v>
@@ -5728,22 +5769,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="G105" s="25" t="s">
         <v>19</v>
@@ -5754,22 +5795,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>94</v>
+        <v>427</v>
       </c>
       <c r="G106" s="25" t="s">
         <v>19</v>
@@ -5780,22 +5821,22 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>210</v>
+        <v>402</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="G107" s="25" t="s">
         <v>19</v>
@@ -5805,104 +5846,104 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G108" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H108" s="30" t="s">
+      <c r="A108" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="12" t="s">
+      <c r="A109" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F109" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="F109" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H110" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>244</v>
+        <v>392</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>18</v>
@@ -5910,25 +5951,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>63</v>
+        <v>398</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>18</v>
@@ -5936,25 +5977,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>18</v>
@@ -5962,25 +6003,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>18</v>
@@ -5988,170 +6029,170 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="2"/>
+      <c r="A116" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="A117" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="120" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="31"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="122" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B122" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="28"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="28"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="F123" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H123" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>19</v>
@@ -6162,22 +6203,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>19</v>
@@ -6188,22 +6229,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>19</v>
@@ -6213,101 +6254,101 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G127" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H127" s="30" t="s">
+      <c r="A127" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F128" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="G128" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H128" s="30" t="s">
-        <v>467</v>
+      <c r="A128" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>465</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>467</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G130" s="29" t="s">
         <v>465</v>
@@ -6318,74 +6359,74 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>231</v>
+        <v>468</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>408</v>
+        <v>263</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>411</v>
@@ -6396,22 +6437,22 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="G134" s="29" t="s">
         <v>411</v>
@@ -6422,25 +6463,25 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G135" s="29" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H135" s="30" t="s">
         <v>18</v>
@@ -6448,25 +6489,25 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G136" s="29" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H136" s="30" t="s">
         <v>18</v>
@@ -6474,22 +6515,22 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>425</v>
+        <v>233</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>185</v>
@@ -6499,79 +6540,83 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="30"/>
+      <c r="A138" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H138" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="47"/>
-      <c r="B139" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="C139" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="D139" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="E139" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="F139" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G139" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H139" s="49" t="s">
-        <v>467</v>
+      <c r="A139" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="47"/>
-      <c r="B140" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C140" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="D140" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E140" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="F140" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="G140" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H140" s="49" t="s">
-        <v>467</v>
-      </c>
+      <c r="A140" s="11"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="47"/>
       <c r="B141" s="48" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>274</v>
+        <v>412</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>466</v>
@@ -6583,19 +6628,19 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="47"/>
       <c r="B142" s="48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G142" s="48" t="s">
         <v>466</v>
@@ -6604,107 +6649,113 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="47"/>
+      <c r="B143" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D143" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F143" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G143" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H143" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="47"/>
+      <c r="B144" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H144" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B147" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="28"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="28"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D148" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E148" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F148" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G146" s="10" t="s">
+      <c r="G148" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H148" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G147" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
+      <c r="D149" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="G149" s="12" t="s">
         <v>355</v>
       </c>
@@ -6714,26 +6765,34 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
+      <c r="D150" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="G150" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -6742,14 +6801,16 @@
       <c r="G151" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H151" s="2"/>
+      <c r="H151" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -6762,10 +6823,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -6778,129 +6839,133 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="G154" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B155" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+      <c r="G155" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B160" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="28"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="28"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B161" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E161" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F161" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G159" s="10" t="s">
+      <c r="G161" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H159" s="10" t="s">
+      <c r="H161" s="10" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
+        <v>364</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H162" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6908,11 +6973,13 @@
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
-      <c r="H163" s="2"/>
+      <c r="H163" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6920,11 +6987,13 @@
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-      <c r="H164" s="2"/>
+      <c r="H164" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6936,7 +7005,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6948,7 +7017,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6960,7 +7029,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6968,7 +7037,31 @@
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
-      <c r="H168" s="2" t="s">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="2" t="s">
         <v>18</v>
       </c>
     </row>
